--- a/data/dos_mqtt_iot/models/xgb/results/final/final_results.xlsx
+++ b/data/dos_mqtt_iot/models/xgb/results/final/final_results.xlsx
@@ -17,6 +17,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
+    <t>target_fpr</t>
+  </si>
+  <si>
     <t>BF1_DDoS_AD</t>
   </si>
   <si>
@@ -30,9 +33,6 @@
   </si>
   <si>
     <t>WILL_DDoS_AD</t>
-  </si>
-  <si>
-    <t>target_fpr</t>
   </si>
 </sst>
 </file>
@@ -418,27 +418,27 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>1.06652075</v>
-      </c>
-      <c r="B2">
-        <v>4.645657066666667</v>
-      </c>
-      <c r="C2">
-        <v>0.9463745625000001</v>
-      </c>
-      <c r="D2">
-        <v>1.896375272727273</v>
-      </c>
-      <c r="E2">
-        <v>4.3654980625</v>
-      </c>
-      <c r="F2">
-        <v>0.01</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="3" spans="1:6">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>1.06652075</v>
+      </c>
+      <c r="C3">
+        <v>4.645657066666667</v>
+      </c>
+      <c r="D3">
+        <v>0.9463745625000001</v>
+      </c>
+      <c r="E3">
+        <v>1.896375272727273</v>
+      </c>
       <c r="F3">
-        <v>0.0005</v>
+        <v>4.3654980625</v>
       </c>
     </row>
   </sheetData>
@@ -456,47 +456,47 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="C2">
-        <v>0.8</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="F2">
-        <v>0.01</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C3">
+        <v>0.8</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="F3">
-        <v>0.0005</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
